--- a/Canada_v2.xlsx
+++ b/Canada_v2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19660" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -33,7 +28,12 @@
     <definedName name="Residence" localSheetId="0">'[1]Country data'!#REF!</definedName>
     <definedName name="Residence">'[1]Country data'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -757,12 +757,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General_)"/>
     <numFmt numFmtId="165" formatCode="###,###.##"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -838,44 +838,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Regional aggregates"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Regional aggregates"/>
@@ -2519,7 +2519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2554,7 +2554,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2772,13 +2772,13 @@
       <selection pane="bottomRight" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="10" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="11.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="13.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.796875" style="1" customWidth="1"/>
+    <col min="4" max="9" width="11.19921875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.3984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="2" customFormat="1">
@@ -73513,7 +73513,12 @@
   </sheetData>
   <autoFilter ref="A1:AQ197"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>